--- a/doc/miniclock_page.xlsx
+++ b/doc/miniclock_page.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Source_Code\MCU_DEV\miniClock\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MY_CODE\MiniClock\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C5F71-3EA6-4652-9BBE-A879C0F2EF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="PAGE" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>时间显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,13 +223,17 @@
   </si>
   <si>
     <t>屏幕亮度调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APE-分钟调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,6 +543,24 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,6 +568,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,49 +615,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,11 +900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AX27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -911,60 +914,60 @@
   <sheetData>
     <row r="1" spans="3:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="24" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="27" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="26"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="10"/>
     </row>
     <row r="3" spans="3:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
@@ -979,12 +982,12 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4">
         <v>4</v>
@@ -993,12 +996,12 @@
         <v>5</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="3">
         <v>2</v>
       </c>
@@ -1011,12 +1014,12 @@
       <c r="V3" s="5">
         <v>0</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="10"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16"/>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
@@ -1029,12 +1032,12 @@
       <c r="AD3" s="5">
         <v>2</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="10"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="16"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="4" t="s">
         <v>4</v>
@@ -1047,18 +1050,18 @@
       </c>
     </row>
     <row r="4" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1091,12 +1094,12 @@
       <c r="AL4" s="2"/>
     </row>
     <row r="5" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1129,12 +1132,12 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1159,38 +1162,38 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="3:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="32" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1215,56 +1218,56 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="3:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="24" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="24" t="s">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="26"/>
-      <c r="X14" s="11" t="s">
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="X14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="25"/>
     </row>
     <row r="15" spans="3:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
@@ -1279,12 +1282,12 @@
       <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1297,12 +1300,12 @@
       <c r="N15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="10"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
       <c r="S15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1315,72 +1318,72 @@
       <c r="V15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="14"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="3:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="24" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="24" t="s">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="27" t="s">
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="24" t="s">
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="26"/>
-      <c r="AF18" s="11" t="s">
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="10"/>
+      <c r="AF18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AG18" s="12"/>
+      <c r="AG18" s="25"/>
     </row>
     <row r="19" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
@@ -1395,12 +1398,12 @@
       <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1413,12 +1416,12 @@
       <c r="N19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
       <c r="S19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1431,12 +1434,12 @@
       <c r="V19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="8" t="s">
+      <c r="W19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="10"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="16"/>
       <c r="AA19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1449,96 +1452,96 @@
       <c r="AD19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="14"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="27"/>
     </row>
     <row r="20" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="24" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="24" t="s">
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="27" t="s">
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="27" t="s">
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="24" t="s">
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="26"/>
-      <c r="AN22" s="11" t="s">
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="10"/>
+      <c r="AN22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AO22" s="12"/>
-      <c r="AQ22" s="30" t="s">
+      <c r="AO22" s="25"/>
+      <c r="AQ22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15" t="s">
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="16"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="29"/>
     </row>
     <row r="23" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
@@ -1553,12 +1556,12 @@
       <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1571,12 +1574,12 @@
       <c r="N23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16"/>
       <c r="S23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1589,12 +1592,12 @@
       <c r="V23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W23" s="8" t="s">
+      <c r="W23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="16"/>
       <c r="AA23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1607,12 +1610,12 @@
       <c r="AD23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AE23" s="8" t="s">
+      <c r="AE23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="10"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="16"/>
       <c r="AI23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1625,60 +1628,60 @@
       <c r="AL23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="14"/>
-      <c r="AQ23" s="31" t="s">
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="27"/>
+      <c r="AQ23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17" t="s">
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
-      <c r="AW23" s="17"/>
-      <c r="AX23" s="18"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="31"/>
     </row>
     <row r="24" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="20"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="24" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="26"/>
-      <c r="P26" s="11" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="P26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="12"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
@@ -1693,12 +1696,12 @@
       <c r="F27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="6" t="s">
         <v>46</v>
       </c>
@@ -1711,11 +1714,66 @@
       <c r="N27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="P26:Q27"/>
+    <mergeCell ref="AS22:AX22"/>
+    <mergeCell ref="AS23:AX23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="AI22:AL22"/>
+    <mergeCell ref="AE23:AH23"/>
+    <mergeCell ref="AN22:AO23"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AQ23:AR23"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="AF18:AG19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:F9"/>
     <mergeCell ref="AI2:AL2"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G2:J2"/>
@@ -1732,61 +1790,6 @@
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:F5"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="X14:Y15"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="AF18:AG19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="AS22:AX22"/>
-    <mergeCell ref="AS23:AX23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="AE22:AH22"/>
-    <mergeCell ref="AI22:AL22"/>
-    <mergeCell ref="AE23:AH23"/>
-    <mergeCell ref="AN22:AO23"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AQ23:AR23"/>
-    <mergeCell ref="S22:V22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/miniclock_page.xlsx
+++ b/doc/miniclock_page.xlsx
@@ -543,24 +543,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,6 +550,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,40 +591,34 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,7 +904,7 @@
   <dimension ref="C1:AX27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -914,60 +914,60 @@
   <sheetData>
     <row r="1" spans="3:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="8" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="8" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="8" t="s">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="11" t="s">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="8" t="s">
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="10"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="26"/>
     </row>
     <row r="3" spans="3:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
@@ -982,12 +982,12 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4">
         <v>4</v>
@@ -996,12 +996,12 @@
         <v>5</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
       <c r="S3" s="3">
         <v>2</v>
       </c>
@@ -1014,12 +1014,12 @@
       <c r="V3" s="5">
         <v>0</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="10"/>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
@@ -1032,12 +1032,12 @@
       <c r="AD3" s="5">
         <v>2</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AE3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="10"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="4" t="s">
         <v>4</v>
@@ -1050,18 +1050,18 @@
       </c>
     </row>
     <row r="4" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1094,12 +1094,12 @@
       <c r="AL4" s="2"/>
     </row>
     <row r="5" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="18"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1132,12 +1132,12 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1162,38 +1162,38 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="3:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1218,56 +1218,56 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="3:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="8" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11" t="s">
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="8" t="s">
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10"/>
-      <c r="X14" s="24" t="s">
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="26"/>
+      <c r="X14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="25"/>
+      <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="3:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
@@ -1282,12 +1282,12 @@
       <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1300,12 +1300,12 @@
       <c r="N15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="16"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
       <c r="S15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1318,72 +1318,72 @@
       <c r="V15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="27"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="3:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="8" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11" t="s">
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="8" t="s">
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11" t="s">
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="8" t="s">
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="10"/>
-      <c r="AF18" s="24" t="s">
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26"/>
+      <c r="AF18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AG18" s="25"/>
+      <c r="AG18" s="12"/>
     </row>
     <row r="19" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
@@ -1398,12 +1398,12 @@
       <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1416,12 +1416,12 @@
       <c r="N19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="16"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1434,12 +1434,12 @@
       <c r="V19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="14" t="s">
+      <c r="W19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="16"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="10"/>
       <c r="AA19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1452,96 +1452,96 @@
       <c r="AD19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="27"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
     </row>
     <row r="20" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="8" t="s">
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11" t="s">
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="8" t="s">
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="11" t="s">
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="8" t="s">
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="11" t="s">
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="8" t="s">
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="10"/>
-      <c r="AN22" s="24" t="s">
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="26"/>
+      <c r="AN22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AO22" s="25"/>
-      <c r="AQ22" s="32" t="s">
+      <c r="AO22" s="12"/>
+      <c r="AQ22" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AR22" s="28"/>
-      <c r="AS22" s="28" t="s">
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="28"/>
-      <c r="AX22" s="29"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="16"/>
     </row>
     <row r="23" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
@@ -1556,12 +1556,12 @@
       <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1574,12 +1574,12 @@
       <c r="N23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1592,12 +1592,12 @@
       <c r="V23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W23" s="14" t="s">
+      <c r="W23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="16"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="10"/>
       <c r="AA23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1610,12 +1610,12 @@
       <c r="AD23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AE23" s="14" t="s">
+      <c r="AE23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="16"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="10"/>
       <c r="AI23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1628,60 +1628,60 @@
       <c r="AL23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="27"/>
-      <c r="AQ23" s="33" t="s">
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="14"/>
+      <c r="AQ23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30" t="s">
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="30"/>
-      <c r="AV23" s="30"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="31"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="18"/>
     </row>
     <row r="24" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="8" t="s">
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="P26" s="24" t="s">
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="P26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="25"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
@@ -1696,12 +1696,12 @@
       <c r="F27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="6" t="s">
         <v>46</v>
       </c>
@@ -1714,11 +1714,66 @@
       <c r="N27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="27"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="AF18:AG19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="O22:R22"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="AS22:AX22"/>
@@ -1735,61 +1790,6 @@
     <mergeCell ref="AQ22:AR22"/>
     <mergeCell ref="AQ23:AR23"/>
     <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="AF18:AG19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="X14:Y15"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/miniclock_page.xlsx
+++ b/doc/miniclock_page.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
   <si>
     <t>时间显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,14 @@
   </si>
   <si>
     <t>APE-分钟调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页模式调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,6 +551,24 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,6 +576,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,49 +623,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,7 +912,7 @@
   <dimension ref="C1:AX27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -914,60 +922,60 @@
   <sheetData>
     <row r="1" spans="3:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="24" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="27" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="26"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="10"/>
     </row>
     <row r="3" spans="3:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
@@ -982,12 +990,12 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4">
         <v>4</v>
@@ -996,12 +1004,12 @@
         <v>5</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="3">
         <v>2</v>
       </c>
@@ -1014,12 +1022,12 @@
       <c r="V3" s="5">
         <v>0</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="10"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16"/>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
@@ -1032,12 +1040,12 @@
       <c r="AD3" s="5">
         <v>2</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="10"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="16"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="4" t="s">
         <v>4</v>
@@ -1050,18 +1058,18 @@
       </c>
     </row>
     <row r="4" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1094,12 +1102,12 @@
       <c r="AL4" s="2"/>
     </row>
     <row r="5" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1132,12 +1140,12 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1162,38 +1170,38 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="3:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="32" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1218,56 +1226,56 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="3:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="3:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="24" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="24" t="s">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="26"/>
-      <c r="X14" s="11" t="s">
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="X14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="25"/>
     </row>
     <row r="15" spans="3:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
@@ -1282,12 +1290,12 @@
       <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1300,12 +1308,12 @@
       <c r="N15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="10"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
       <c r="S15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1318,72 +1326,72 @@
       <c r="V15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="14"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="3:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="24" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="24" t="s">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="27" t="s">
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="24" t="s">
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="26"/>
-      <c r="AF18" s="11" t="s">
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="10"/>
+      <c r="AF18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AG18" s="12"/>
+      <c r="AG18" s="25"/>
     </row>
     <row r="19" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
@@ -1398,12 +1406,12 @@
       <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1416,12 +1424,12 @@
       <c r="N19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
       <c r="S19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1434,12 +1442,12 @@
       <c r="V19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="8" t="s">
+      <c r="W19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="10"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="16"/>
       <c r="AA19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1452,96 +1460,96 @@
       <c r="AD19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="14"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="27"/>
     </row>
     <row r="20" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="24" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="24" t="s">
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="27" t="s">
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="24" t="s">
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="27" t="s">
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="24" t="s">
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="26"/>
-      <c r="AN22" s="11" t="s">
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="10"/>
+      <c r="AN22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AO22" s="12"/>
-      <c r="AQ22" s="30" t="s">
+      <c r="AO22" s="25"/>
+      <c r="AQ22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15" t="s">
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="16"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="29"/>
     </row>
     <row r="23" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
@@ -1556,12 +1564,12 @@
       <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1574,12 +1582,12 @@
       <c r="N23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16"/>
       <c r="S23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1592,12 +1600,12 @@
       <c r="V23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W23" s="8" t="s">
+      <c r="W23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="16"/>
       <c r="AA23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1610,12 +1618,12 @@
       <c r="AD23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AE23" s="8" t="s">
+      <c r="AE23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="10"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="16"/>
       <c r="AI23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1628,60 +1636,72 @@
       <c r="AL23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="14"/>
-      <c r="AQ23" s="31" t="s">
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="27"/>
+      <c r="AQ23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17" t="s">
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
-      <c r="AW23" s="17"/>
-      <c r="AX23" s="18"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="31"/>
     </row>
     <row r="24" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="3:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="20"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C26" s="24" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="3:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="24" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="26"/>
-      <c r="P26" s="11" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="10"/>
+      <c r="X26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="12"/>
+      <c r="Y26" s="25"/>
     </row>
     <row r="27" spans="3:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
@@ -1696,12 +1716,12 @@
       <c r="F27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="6" t="s">
         <v>46</v>
       </c>
@@ -1714,11 +1734,87 @@
       <c r="N27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
+      <c r="O27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="74">
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="X26:Y27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="AS22:AX22"/>
+    <mergeCell ref="AS23:AX23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="AI22:AL22"/>
+    <mergeCell ref="AE23:AH23"/>
+    <mergeCell ref="AN22:AO23"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AQ23:AR23"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="AF18:AG19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:F9"/>
     <mergeCell ref="AI2:AL2"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G2:J2"/>
@@ -1735,61 +1831,6 @@
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:F5"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="X14:Y15"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="AF18:AG19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="AS22:AX22"/>
-    <mergeCell ref="AS23:AX23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="AE22:AH22"/>
-    <mergeCell ref="AI22:AL22"/>
-    <mergeCell ref="AE23:AH23"/>
-    <mergeCell ref="AN22:AO23"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AQ23:AR23"/>
-    <mergeCell ref="S22:V22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
